--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2751.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2751.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160531388915176</v>
+        <v>1.726246953010559</v>
       </c>
       <c r="B1">
-        <v>2.420629877879934</v>
+        <v>2.304184913635254</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.489066600799561</v>
       </c>
       <c r="D1">
-        <v>2.366097415798265</v>
+        <v>3.209345579147339</v>
       </c>
       <c r="E1">
-        <v>1.222256171484815</v>
+        <v>1.725540637969971</v>
       </c>
     </row>
   </sheetData>
